--- a/biology/Botanique/La_Bataille_pour_la_forêt/La_Bataille_pour_la_forêt.xlsx
+++ b/biology/Botanique/La_Bataille_pour_la_forêt/La_Bataille_pour_la_forêt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Bataille_pour_la_for%C3%AAt</t>
+          <t>La_Bataille_pour_la_forêt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Bataille pour la forêt est une émission de télévision québécoise en six épisodes de 30 minutes présentée par la journaliste Gabrielle Anctil et présentée à partir du 14 février 2023 sur la chaîne Savoir média[1]. Elle a été produite en collaboration avec l’Université du Québec et avec la participation financière du Fonds des médias du Canada[2].
+La Bataille pour la forêt est une émission de télévision québécoise en six épisodes de 30 minutes présentée par la journaliste Gabrielle Anctil et présentée à partir du 14 février 2023 sur la chaîne Savoir média. Elle a été produite en collaboration avec l’Université du Québec et avec la participation financière du Fonds des médias du Canada.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Bataille_pour_la_for%C3%AAt</t>
+          <t>La_Bataille_pour_la_forêt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La série décortique les multiples enjeux liés à la forêt[3], qu’ils soient scientifiques, économiques, environnementaux, humains ou sociaux[4]. Elle va à la rencontre de chercheurs, industriels, politiciens ou citoyens qui cherchent des solutions innovantes vers le développement durable et une saine gestion des forêts québécoises[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série décortique les multiples enjeux liés à la forêt, qu’ils soient scientifiques, économiques, environnementaux, humains ou sociaux. Elle va à la rencontre de chercheurs, industriels, politiciens ou citoyens qui cherchent des solutions innovantes vers le développement durable et une saine gestion des forêts québécoises.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Bataille_pour_la_for%C3%AAt</t>
+          <t>La_Bataille_pour_la_forêt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,21 +557,233 @@
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque épisode voit l’animatrice Gabrielle Anctil s’entretenir avec ceux et celles qui cherchent à préserver la forêt québécoise, notamment avec plusieurs chercheurs et chercheuses du réseau de l’Université du Québec. 
-La forêt ancienne
-Dans ce premier épisode, des chercheurs et chercheuses tentent de recomposer le passé de la forêt québécoise afin de mieux comprendre les réactions des forêts aux changements climatiques en cours.
-L'industrie de la forêt
-Cet épisode traite des contradictions de l'industrie forestière et offre une entrevue avec Louis Pelletier, Forestier en chef du Québec depuis 2016.
-La forêt et les changements climatiques
-Cet épisode s'intéresse à la façon dont la forêt réagit aux changements climatiques et s’y adapte.
-La forêt urbaine
-Cet épisode s'intéresse à la canopée urbaine et aux changements climatiques qui menacent de plus en plus les infrastructures vertes de nos villes.
-La forêt à protéger
-Cet épisode se penche sur le déploiement d'efforts pour protéger la forêt et la création d'aires protégées.
-L'avenir de la forêt
-L'avenir de la forêt passe par le concept d’aménagement écosystémique des forêts, une approche intégrée et inscrite dans la loi québécoise qui permet d’assurer le maintien de la biodiversité des écosystèmes. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>La_Bataille_pour_la_forêt</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Bataille_pour_la_for%C3%AAt</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La forêt ancienne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce premier épisode, des chercheurs et chercheuses tentent de recomposer le passé de la forêt québécoise afin de mieux comprendre les réactions des forêts aux changements climatiques en cours.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>La_Bataille_pour_la_forêt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Bataille_pour_la_for%C3%AAt</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L'industrie de la forêt</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet épisode traite des contradictions de l'industrie forestière et offre une entrevue avec Louis Pelletier, Forestier en chef du Québec depuis 2016.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>La_Bataille_pour_la_forêt</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Bataille_pour_la_for%C3%AAt</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La forêt et les changements climatiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet épisode s'intéresse à la façon dont la forêt réagit aux changements climatiques et s’y adapte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>La_Bataille_pour_la_forêt</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Bataille_pour_la_for%C3%AAt</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La forêt urbaine</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet épisode s'intéresse à la canopée urbaine et aux changements climatiques qui menacent de plus en plus les infrastructures vertes de nos villes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>La_Bataille_pour_la_forêt</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Bataille_pour_la_for%C3%AAt</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>La forêt à protéger</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet épisode se penche sur le déploiement d'efforts pour protéger la forêt et la création d'aires protégées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>La_Bataille_pour_la_forêt</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Bataille_pour_la_for%C3%AAt</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>L'avenir de la forêt</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'avenir de la forêt passe par le concept d’aménagement écosystémique des forêts, une approche intégrée et inscrite dans la loi québécoise qui permet d’assurer le maintien de la biodiversité des écosystèmes. 
 </t>
         </is>
       </c>
